--- a/final project/Screwed.xlsx
+++ b/final project/Screwed.xlsx
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/final project/Screwed.xlsx
+++ b/final project/Screwed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -472,31 +472,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/final project/Screwed.xlsx
+++ b/final project/Screwed.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\project_new\Group2_Yesodot\final project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144BAF3-4E8C-4DC9-9569-5839726D5520}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screwed" sheetId="1" r:id="rId1"/>
     <sheet name="shiftsPerWorker" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -47,12 +53,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,11 +91,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -131,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,9 +177,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,6 +229,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,14 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -395,83 +447,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -481,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -504,44 +572,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/final project/Screwed.xlsx
+++ b/final project/Screwed.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\project_new\Group2_Yesodot\final project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144BAF3-4E8C-4DC9-9569-5839726D5520}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="screwed" sheetId="1" r:id="rId1"/>
     <sheet name="shiftsPerWorker" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -53,12 +47,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,19 +85,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,27 +163,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,24 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,16 +372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -447,7 +395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -455,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -463,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -471,7 +419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -479,7 +427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -487,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -495,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -503,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -511,7 +459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -519,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -527,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -535,12 +483,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -549,14 +513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -564,15 +528,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -580,36 +544,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
